--- a/KetQuaTest_ProductService.xlsx
+++ b/KetQuaTest_ProductService.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -35,41 +35,72 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>PROD_SVC_05</t>
+  </si>
+  <si>
+    <t>Lấy Map Size</t>
+  </si>
+  <si>
+    <t>List=[S, M]</t>
+  </si>
+  <si>
+    <t>1. DAO trả list Size
+2. Convert sang Map</t>
+  </si>
+  <si>
+    <t>Map size=2</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>PROD_EX_01</t>
+  </si>
+  <si>
+    <t>Lỗi khi tìm kiếm</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>DAO throw Exception</t>
+  </si>
+  <si>
+    <t>Return Empty List</t>
+  </si>
+  <si>
     <t>PROD_SVC_04</t>
   </si>
   <si>
-    <t>Lấy biến thể (Size/Màu)</t>
+    <t>Lấy biến thể</t>
+  </si>
+  <si>
+    <t>ID=1</t>
   </si>
   <si>
     <t>1. ID=1
 2. Call VariantDAO</t>
   </si>
   <si>
-    <t>ID=1</t>
-  </si>
-  <si>
-    <t>Trả về list variants</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>Trả về list</t>
   </si>
   <si>
     <t>PROD_SVC_02</t>
   </si>
   <si>
     <t>Tìm kiếm rỗng</t>
+  </si>
+  <si>
+    <t>Key='   '</t>
   </si>
   <si>
     <t>1. Key='   '
 2. Call DAO getAllProducts</t>
   </si>
   <si>
-    <t>Key='   '</t>
-  </si>
-  <si>
     <t>Trả về toàn bộ SP</t>
   </si>
   <si>
@@ -77,16 +108,28 @@
   </si>
   <si>
     <t>Tìm kiếm có từ khóa</t>
+  </si>
+  <si>
+    <t>Key='ao'</t>
   </si>
   <si>
     <t>1. Key='ao'
 2. Call DAO searchByKeyword</t>
   </si>
   <si>
-    <t>Key='ao'</t>
-  </si>
-  <si>
     <t>Trả về list kết quả</t>
+  </si>
+  <si>
+    <t>PROD_SVC_06</t>
+  </si>
+  <si>
+    <t>Form thêm mới (ID=0)</t>
+  </si>
+  <si>
+    <t>ID=0</t>
+  </si>
+  <si>
+    <t>Trả về Product rỗng</t>
   </si>
   <si>
     <t>PROD_SVC_03</t>
@@ -99,7 +142,96 @@
 2. DAO trả về SP</t>
   </si>
   <si>
-    <t>Trả về Object Products</t>
+    <t>Trả về Object</t>
+  </si>
+  <si>
+    <t>PROD_SVC_07</t>
+  </si>
+  <si>
+    <t>Form sửa (ID=5)</t>
+  </si>
+  <si>
+    <t>ID=5</t>
+  </si>
+  <si>
+    <t>Trả về Product từ DB</t>
+  </si>
+  <si>
+    <t>PROD_EX_02</t>
+  </si>
+  <si>
+    <t>Lỗi khi lấy chi tiết</t>
+  </si>
+  <si>
+    <t>Return Null</t>
+  </si>
+  <si>
+    <t>PROD_SVC_11</t>
+  </si>
+  <si>
+    <t>Chặn xóa (Còn biến thể)</t>
+  </si>
+  <si>
+    <t>ID=1, Has Var</t>
+  </si>
+  <si>
+    <t>1. Check Variants = List
+2. Return False</t>
+  </si>
+  <si>
+    <t>Không gọi DAO Delete -&gt; False</t>
+  </si>
+  <si>
+    <t>PROD_EX_03</t>
+  </si>
+  <si>
+    <t>Lỗi khi lưu</t>
+  </si>
+  <si>
+    <t>Return False</t>
+  </si>
+  <si>
+    <t>PROD_SVC_08</t>
+  </si>
+  <si>
+    <t>Lưu mới (Insert)</t>
+  </si>
+  <si>
+    <t>Product ID=0</t>
+  </si>
+  <si>
+    <t>Call DAO.insert -&gt; True</t>
+  </si>
+  <si>
+    <t>PROD_SVC_09</t>
+  </si>
+  <si>
+    <t>Cập nhật (Update)</t>
+  </si>
+  <si>
+    <t>ID=10</t>
+  </si>
+  <si>
+    <t>Product ID=10</t>
+  </si>
+  <si>
+    <t>Call DAO.update -&gt; True</t>
+  </si>
+  <si>
+    <t>PROD_SVC_10</t>
+  </si>
+  <si>
+    <t>Xóa thành công</t>
+  </si>
+  <si>
+    <t>ID=1, No Var</t>
+  </si>
+  <si>
+    <t>1. Check Variants = Empty
+2. Call Delete</t>
+  </si>
+  <si>
+    <t>DAO Delete -&gt; True</t>
   </si>
 </sst>
 </file>
@@ -177,17 +309,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="14.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.15625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.46484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.6953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.0546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.46484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="28.1328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -295,15 +427,245 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>13</v>
       </c>
     </row>
